--- a/resources/experiment 1/predictions/multiple/RandomForestRegressor/average time/Neuropatías.xlsx
+++ b/resources/experiment 1/predictions/multiple/RandomForestRegressor/average time/Neuropatías.xlsx
@@ -467,1422 +467,1422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15.88131775019782</v>
+        <v>15.85831168482834</v>
       </c>
       <c r="B2" t="n">
-        <v>12.70429084802134</v>
+        <v>12.63945213387992</v>
       </c>
       <c r="C2" t="n">
-        <v>19.05985721838299</v>
+        <v>18.92867860913989</v>
       </c>
       <c r="D2" t="n">
-        <v>28.49667770884433</v>
+        <v>28.49242277330974</v>
       </c>
       <c r="E2" t="n">
-        <v>25.6401779769232</v>
+        <v>25.50796436382482</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8542505902337</v>
+        <v>31.78502588582498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17.6308277659204</v>
+        <v>17.69684784707468</v>
       </c>
       <c r="B3" t="n">
-        <v>13.6312835316466</v>
+        <v>13.61691913763063</v>
       </c>
       <c r="C3" t="n">
-        <v>21.578388043152</v>
+        <v>21.47189480070147</v>
       </c>
       <c r="D3" t="n">
-        <v>22.23438613989876</v>
+        <v>22.24212330415155</v>
       </c>
       <c r="E3" t="n">
-        <v>15.94052503443111</v>
+        <v>15.91890635954334</v>
       </c>
       <c r="F3" t="n">
-        <v>28.51003661989971</v>
+        <v>28.66718873899907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17.23186442005036</v>
+        <v>17.19500161768007</v>
       </c>
       <c r="B4" t="n">
-        <v>14.59254114542115</v>
+        <v>14.65867007321751</v>
       </c>
       <c r="C4" t="n">
-        <v>19.89619233080537</v>
+        <v>19.90735241435412</v>
       </c>
       <c r="D4" t="n">
-        <v>23.10523837475546</v>
+        <v>23.09553753780571</v>
       </c>
       <c r="E4" t="n">
-        <v>18.03491280042452</v>
+        <v>17.96744366584603</v>
       </c>
       <c r="F4" t="n">
-        <v>28.4555700532162</v>
+        <v>27.9986816529497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.40200897472573</v>
+        <v>21.42235740885715</v>
       </c>
       <c r="B5" t="n">
-        <v>17.04352749295597</v>
+        <v>16.92553487083655</v>
       </c>
       <c r="C5" t="n">
-        <v>25.61075252106328</v>
+        <v>25.66274630959482</v>
       </c>
       <c r="D5" t="n">
-        <v>27.15734225776925</v>
+        <v>27.07685706522269</v>
       </c>
       <c r="E5" t="n">
-        <v>20.06380350228696</v>
+        <v>20.16306220384708</v>
       </c>
       <c r="F5" t="n">
-        <v>33.97106084178801</v>
+        <v>34.26773088049227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21.27417008544755</v>
+        <v>21.19202818985486</v>
       </c>
       <c r="B6" t="n">
-        <v>18.67100345339968</v>
+        <v>18.4365392393758</v>
       </c>
       <c r="C6" t="n">
-        <v>24.14534478884911</v>
+        <v>24.06112510026228</v>
       </c>
       <c r="D6" t="n">
-        <v>30.33838626808021</v>
+        <v>30.47051507362119</v>
       </c>
       <c r="E6" t="n">
-        <v>26.21278805528758</v>
+        <v>26.40203491805933</v>
       </c>
       <c r="F6" t="n">
-        <v>34.76937203733682</v>
+        <v>34.82623712457204</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.20407896967435</v>
+        <v>14.24048509586426</v>
       </c>
       <c r="B7" t="n">
-        <v>11.56308230599258</v>
+        <v>11.56769383367244</v>
       </c>
       <c r="C7" t="n">
-        <v>17.01117477645803</v>
+        <v>17.05620404775952</v>
       </c>
       <c r="D7" t="n">
-        <v>24.39795077256964</v>
+        <v>24.43810267098883</v>
       </c>
       <c r="E7" t="n">
-        <v>21.91372055270294</v>
+        <v>21.63116742316071</v>
       </c>
       <c r="F7" t="n">
-        <v>27.20664245252198</v>
+        <v>27.27307007139463</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.880758651604363</v>
+        <v>4.909460104811506</v>
       </c>
       <c r="B8" t="n">
-        <v>3.252186979150454</v>
+        <v>3.226468965527356</v>
       </c>
       <c r="C8" t="n">
-        <v>7.334518040263773</v>
+        <v>7.334439867687439</v>
       </c>
       <c r="D8" t="n">
-        <v>18.55414550910771</v>
+        <v>18.54994308758315</v>
       </c>
       <c r="E8" t="n">
-        <v>16.28927927796171</v>
+        <v>16.29070710537576</v>
       </c>
       <c r="F8" t="n">
-        <v>20.61893959380832</v>
+        <v>20.57618579466799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.59019838639471</v>
+        <v>19.62973714624054</v>
       </c>
       <c r="B9" t="n">
-        <v>17.38642604185033</v>
+        <v>17.32943669782358</v>
       </c>
       <c r="C9" t="n">
-        <v>22.37793740360223</v>
+        <v>22.52716082489298</v>
       </c>
       <c r="D9" t="n">
-        <v>28.05967022587858</v>
+        <v>28.1317902424888</v>
       </c>
       <c r="E9" t="n">
-        <v>23.99024090257387</v>
+        <v>24.0709005033531</v>
       </c>
       <c r="F9" t="n">
-        <v>32.04964118519617</v>
+        <v>32.12045972089974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.929035815251446</v>
+        <v>4.980627871487967</v>
       </c>
       <c r="B10" t="n">
-        <v>3.179842639422246</v>
+        <v>3.290368932631941</v>
       </c>
       <c r="C10" t="n">
-        <v>7.639969545647067</v>
+        <v>7.600405291701911</v>
       </c>
       <c r="D10" t="n">
-        <v>20.22839814700372</v>
+        <v>20.14960481738223</v>
       </c>
       <c r="E10" t="n">
-        <v>18.01925510815229</v>
+        <v>17.94901620283025</v>
       </c>
       <c r="F10" t="n">
-        <v>22.5195465822361</v>
+        <v>22.37679128096461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.65593379479703</v>
+        <v>12.6080916691928</v>
       </c>
       <c r="B11" t="n">
-        <v>9.11865886193586</v>
+        <v>9.060237998245478</v>
       </c>
       <c r="C11" t="n">
-        <v>17.28645177612264</v>
+        <v>16.63745603622749</v>
       </c>
       <c r="D11" t="n">
-        <v>27.09244538373888</v>
+        <v>27.17318243506722</v>
       </c>
       <c r="E11" t="n">
-        <v>24.37276150782711</v>
+        <v>24.28627693128887</v>
       </c>
       <c r="F11" t="n">
-        <v>30.44084260117801</v>
+        <v>30.45101784082471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21.32659207350603</v>
+        <v>21.21615511821889</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4144623694897</v>
+        <v>17.48103546916105</v>
       </c>
       <c r="C12" t="n">
-        <v>24.91365990004121</v>
+        <v>24.96536999705273</v>
       </c>
       <c r="D12" t="n">
-        <v>34.10835102176009</v>
+        <v>34.09948230487937</v>
       </c>
       <c r="E12" t="n">
-        <v>30.40587044530057</v>
+        <v>30.21880395799139</v>
       </c>
       <c r="F12" t="n">
-        <v>37.63146479291243</v>
+        <v>37.74027368323001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.002879962900042</v>
+        <v>6.878134770324595</v>
       </c>
       <c r="B13" t="n">
-        <v>4.460864855265843</v>
+        <v>4.380979739360063</v>
       </c>
       <c r="C13" t="n">
-        <v>11.01362576573856</v>
+        <v>10.79571633631709</v>
       </c>
       <c r="D13" t="n">
-        <v>25.82596494726561</v>
+        <v>25.76789909394126</v>
       </c>
       <c r="E13" t="n">
-        <v>22.61646201677574</v>
+        <v>22.58613739928445</v>
       </c>
       <c r="F13" t="n">
-        <v>29.09308938116597</v>
+        <v>29.04611592957775</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.474512674552489</v>
+        <v>9.463262106998855</v>
       </c>
       <c r="B14" t="n">
-        <v>6.378811529944925</v>
+        <v>6.266410644606181</v>
       </c>
       <c r="C14" t="n">
-        <v>13.57877180610009</v>
+        <v>13.55691311637413</v>
       </c>
       <c r="D14" t="n">
-        <v>25.79804745729653</v>
+        <v>25.80338953928094</v>
       </c>
       <c r="E14" t="n">
-        <v>22.83269464427414</v>
+        <v>22.86369181169617</v>
       </c>
       <c r="F14" t="n">
-        <v>28.86248628870475</v>
+        <v>28.98433567283152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25.19199244761944</v>
+        <v>25.31579082465427</v>
       </c>
       <c r="B15" t="n">
-        <v>20.43508129317176</v>
+        <v>19.98029272581417</v>
       </c>
       <c r="C15" t="n">
-        <v>31.25021414979617</v>
+        <v>31.24630042888902</v>
       </c>
       <c r="D15" t="n">
-        <v>32.13621825187661</v>
+        <v>31.84761382833082</v>
       </c>
       <c r="E15" t="n">
-        <v>23.69651290984776</v>
+        <v>23.43261436822307</v>
       </c>
       <c r="F15" t="n">
-        <v>39.54962446246021</v>
+        <v>39.79120617066719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21.28104901093429</v>
+        <v>21.18071629425867</v>
       </c>
       <c r="B16" t="n">
-        <v>18.61163186943414</v>
+        <v>18.40081588461858</v>
       </c>
       <c r="C16" t="n">
-        <v>24.20695580094941</v>
+        <v>24.06684249663135</v>
       </c>
       <c r="D16" t="n">
-        <v>30.32106532334734</v>
+        <v>30.45203720078772</v>
       </c>
       <c r="E16" t="n">
-        <v>26.21817131173673</v>
+        <v>26.42240286660841</v>
       </c>
       <c r="F16" t="n">
-        <v>34.77364334641191</v>
+        <v>34.85052482487292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21.25128294445792</v>
+        <v>21.16012069982113</v>
       </c>
       <c r="B17" t="n">
-        <v>17.53269133060535</v>
+        <v>17.66182273092543</v>
       </c>
       <c r="C17" t="n">
-        <v>24.72465187960487</v>
+        <v>24.71568360674345</v>
       </c>
       <c r="D17" t="n">
-        <v>34.22402530351806</v>
+        <v>34.06136237573911</v>
       </c>
       <c r="E17" t="n">
-        <v>30.28309881854716</v>
+        <v>30.56785131604397</v>
       </c>
       <c r="F17" t="n">
-        <v>37.47111784926927</v>
+        <v>37.5962559393651</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17.21442622705923</v>
+        <v>17.19500161768007</v>
       </c>
       <c r="B18" t="n">
-        <v>14.59091744815783</v>
+        <v>14.65867007321751</v>
       </c>
       <c r="C18" t="n">
-        <v>19.90208193171315</v>
+        <v>19.90735241435412</v>
       </c>
       <c r="D18" t="n">
-        <v>23.09144840024422</v>
+        <v>23.09553753780571</v>
       </c>
       <c r="E18" t="n">
-        <v>18.0282668372914</v>
+        <v>17.96744366584603</v>
       </c>
       <c r="F18" t="n">
-        <v>27.92833398485066</v>
+        <v>27.9986816529497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13.49355616650214</v>
+        <v>13.4901727518232</v>
       </c>
       <c r="B19" t="n">
-        <v>9.228420387387693</v>
+        <v>9.270703200528725</v>
       </c>
       <c r="C19" t="n">
-        <v>18.55974397533246</v>
+        <v>18.59784325602228</v>
       </c>
       <c r="D19" t="n">
-        <v>30.71571254580649</v>
+        <v>30.84553235876851</v>
       </c>
       <c r="E19" t="n">
-        <v>27.24663960390185</v>
+        <v>27.05676246568978</v>
       </c>
       <c r="F19" t="n">
-        <v>34.56151269942338</v>
+        <v>34.74320882979752</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>24.14098271044172</v>
+        <v>24.18897689244793</v>
       </c>
       <c r="B20" t="n">
-        <v>20.85371104535107</v>
+        <v>20.90744481359528</v>
       </c>
       <c r="C20" t="n">
-        <v>27.4260493993994</v>
+        <v>27.64547634183183</v>
       </c>
       <c r="D20" t="n">
-        <v>34.89440075692428</v>
+        <v>35.00763421436266</v>
       </c>
       <c r="E20" t="n">
-        <v>30.29221372888325</v>
+        <v>30.41533334120459</v>
       </c>
       <c r="F20" t="n">
-        <v>39.47539970640459</v>
+        <v>39.67319889907959</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>24.28387571846537</v>
+        <v>24.15097153317046</v>
       </c>
       <c r="B21" t="n">
-        <v>20.70250553323913</v>
+        <v>21.07080100124355</v>
       </c>
       <c r="C21" t="n">
-        <v>28.05931367184723</v>
+        <v>27.94593688846506</v>
       </c>
       <c r="D21" t="n">
-        <v>32.60649958573691</v>
+        <v>32.75506573647809</v>
       </c>
       <c r="E21" t="n">
-        <v>27.44095679543674</v>
+        <v>27.11668045086042</v>
       </c>
       <c r="F21" t="n">
-        <v>37.75602303538917</v>
+        <v>37.32843546979694</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.983942211684459</v>
+        <v>5.028194298641653</v>
       </c>
       <c r="B22" t="n">
-        <v>3.245979719819723</v>
+        <v>3.321608369202996</v>
       </c>
       <c r="C22" t="n">
-        <v>7.553959324661317</v>
+        <v>7.972400586212169</v>
       </c>
       <c r="D22" t="n">
-        <v>21.78252992621081</v>
+        <v>21.79605145687596</v>
       </c>
       <c r="E22" t="n">
-        <v>18.98316294301929</v>
+        <v>18.94109817407554</v>
       </c>
       <c r="F22" t="n">
-        <v>24.65539200211796</v>
+        <v>24.62417009595638</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>26.99995060621745</v>
+        <v>27.31215032836229</v>
       </c>
       <c r="B23" t="n">
-        <v>21.91584682526729</v>
+        <v>21.96688382011594</v>
       </c>
       <c r="C23" t="n">
-        <v>32.13634495226191</v>
+        <v>32.60684300836712</v>
       </c>
       <c r="D23" t="n">
-        <v>34.81715753136265</v>
+        <v>34.84854916916905</v>
       </c>
       <c r="E23" t="n">
-        <v>27.51161141389023</v>
+        <v>27.31787967599129</v>
       </c>
       <c r="F23" t="n">
-        <v>42.02267798458351</v>
+        <v>42.35556750311534</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21.28907488502785</v>
+        <v>21.17894048338446</v>
       </c>
       <c r="B24" t="n">
-        <v>18.614493300976</v>
+        <v>18.40095919337836</v>
       </c>
       <c r="C24" t="n">
-        <v>24.2662450330876</v>
+        <v>24.07438195984917</v>
       </c>
       <c r="D24" t="n">
-        <v>30.32262241479766</v>
+        <v>30.45040396154538</v>
       </c>
       <c r="E24" t="n">
-        <v>26.23023396930504</v>
+        <v>26.41988058827172</v>
       </c>
       <c r="F24" t="n">
-        <v>34.82474450297985</v>
+        <v>34.85289220502556</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>18.03971010598549</v>
+        <v>18.02272962161875</v>
       </c>
       <c r="B25" t="n">
-        <v>16.00154156988075</v>
+        <v>15.87748291641154</v>
       </c>
       <c r="C25" t="n">
-        <v>20.52362460978414</v>
+        <v>20.42646059536481</v>
       </c>
       <c r="D25" t="n">
-        <v>25.37553684406009</v>
+        <v>25.62020108218537</v>
       </c>
       <c r="E25" t="n">
-        <v>21.89530207914327</v>
+        <v>22.1580282036856</v>
       </c>
       <c r="F25" t="n">
-        <v>29.64842659152009</v>
+        <v>29.62994770578707</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24.28950223966659</v>
+        <v>24.16400718918419</v>
       </c>
       <c r="B26" t="n">
-        <v>20.77184944654669</v>
+        <v>21.17284664637289</v>
       </c>
       <c r="C26" t="n">
-        <v>27.66779641354873</v>
+        <v>27.57188179781492</v>
       </c>
       <c r="D26" t="n">
-        <v>32.63273802965488</v>
+        <v>32.75472620107806</v>
       </c>
       <c r="E26" t="n">
-        <v>27.34418425661787</v>
+        <v>26.55682504316051</v>
       </c>
       <c r="F26" t="n">
-        <v>38.14458349063904</v>
+        <v>37.99548886554642</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.120217718073847</v>
+        <v>7.035359484365602</v>
       </c>
       <c r="B27" t="n">
-        <v>4.42725174857021</v>
+        <v>4.408741471157983</v>
       </c>
       <c r="C27" t="n">
-        <v>10.90542839613324</v>
+        <v>10.62724835843809</v>
       </c>
       <c r="D27" t="n">
-        <v>28.61985996213398</v>
+        <v>28.69008335994265</v>
       </c>
       <c r="E27" t="n">
-        <v>25.52596939172797</v>
+        <v>25.60946456304353</v>
       </c>
       <c r="F27" t="n">
-        <v>32.10208530298411</v>
+        <v>32.07209822320905</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15.13247656817268</v>
+        <v>15.15732810622537</v>
       </c>
       <c r="B28" t="n">
-        <v>12.5661151837487</v>
+        <v>12.62498719082102</v>
       </c>
       <c r="C28" t="n">
-        <v>18.15434250814026</v>
+        <v>18.15613431567416</v>
       </c>
       <c r="D28" t="n">
-        <v>26.48152958204426</v>
+        <v>26.4106995927165</v>
       </c>
       <c r="E28" t="n">
-        <v>23.60431378360048</v>
+        <v>23.46389860803673</v>
       </c>
       <c r="F28" t="n">
-        <v>29.44419325629528</v>
+        <v>29.34686953916321</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28.77857440145085</v>
+        <v>28.81146587618078</v>
       </c>
       <c r="B29" t="n">
-        <v>23.8578718734412</v>
+        <v>23.82537428133564</v>
       </c>
       <c r="C29" t="n">
-        <v>34.6645660560825</v>
+        <v>34.82929741591938</v>
       </c>
       <c r="D29" t="n">
-        <v>36.92383648260075</v>
+        <v>36.62755321726239</v>
       </c>
       <c r="E29" t="n">
-        <v>29.22052918731221</v>
+        <v>28.98738994134719</v>
       </c>
       <c r="F29" t="n">
-        <v>43.89729634173197</v>
+        <v>43.66041987537654</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20.09544527867143</v>
+        <v>20.08002930522263</v>
       </c>
       <c r="B30" t="n">
-        <v>17.11640524860161</v>
+        <v>17.10865417293017</v>
       </c>
       <c r="C30" t="n">
-        <v>22.9807889841513</v>
+        <v>23.02952836397749</v>
       </c>
       <c r="D30" t="n">
-        <v>31.97391167316777</v>
+        <v>31.89388891465546</v>
       </c>
       <c r="E30" t="n">
-        <v>28.02487545757883</v>
+        <v>28.44954490008534</v>
       </c>
       <c r="F30" t="n">
-        <v>35.25214066004166</v>
+        <v>35.18075739167353</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.003321398874661</v>
+        <v>9.176515394905985</v>
       </c>
       <c r="B31" t="n">
-        <v>6.322602493425993</v>
+        <v>6.275645824754281</v>
       </c>
       <c r="C31" t="n">
-        <v>12.43081673382086</v>
+        <v>12.50658160639302</v>
       </c>
       <c r="D31" t="n">
-        <v>23.98593955331302</v>
+        <v>23.92734785408597</v>
       </c>
       <c r="E31" t="n">
-        <v>20.81576320556652</v>
+        <v>20.76776766111438</v>
       </c>
       <c r="F31" t="n">
-        <v>26.89449486347154</v>
+        <v>26.8594010396319</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.694827078087928</v>
+        <v>6.697583502319286</v>
       </c>
       <c r="B32" t="n">
-        <v>4.468522747348159</v>
+        <v>4.426758654717602</v>
       </c>
       <c r="C32" t="n">
-        <v>9.913268992114812</v>
+        <v>9.808722496293417</v>
       </c>
       <c r="D32" t="n">
-        <v>21.06637273140433</v>
+        <v>21.0072997543142</v>
       </c>
       <c r="E32" t="n">
-        <v>18.73540180502561</v>
+        <v>18.59700602978728</v>
       </c>
       <c r="F32" t="n">
-        <v>23.70019129626769</v>
+        <v>23.58047428912761</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.463648287958037</v>
+        <v>9.443888876497558</v>
       </c>
       <c r="B33" t="n">
-        <v>6.402288118162923</v>
+        <v>6.361936168530666</v>
       </c>
       <c r="C33" t="n">
-        <v>13.65580270399929</v>
+        <v>13.46647943688338</v>
       </c>
       <c r="D33" t="n">
-        <v>25.66453044490851</v>
+        <v>25.70398012384895</v>
       </c>
       <c r="E33" t="n">
-        <v>22.66398985128145</v>
+        <v>22.68076820619951</v>
       </c>
       <c r="F33" t="n">
-        <v>28.79922249592353</v>
+        <v>28.88020597922402</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18.00914451079126</v>
+        <v>18.09227788438033</v>
       </c>
       <c r="B34" t="n">
-        <v>13.2987458599342</v>
+        <v>13.33835209151822</v>
       </c>
       <c r="C34" t="n">
-        <v>22.63308609067301</v>
+        <v>22.63595555519427</v>
       </c>
       <c r="D34" t="n">
-        <v>34.28820166017887</v>
+        <v>34.2252378694088</v>
       </c>
       <c r="E34" t="n">
-        <v>30.67882165809834</v>
+        <v>30.57881528585837</v>
       </c>
       <c r="F34" t="n">
-        <v>38.32113453671247</v>
+        <v>38.37215189463341</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>22.66787837558886</v>
+        <v>22.621284209612</v>
       </c>
       <c r="B35" t="n">
-        <v>19.84765872016034</v>
+        <v>19.80020933570887</v>
       </c>
       <c r="C35" t="n">
-        <v>25.70100310339222</v>
+        <v>25.69813327429181</v>
       </c>
       <c r="D35" t="n">
-        <v>32.61614809068853</v>
+        <v>32.63421310640928</v>
       </c>
       <c r="E35" t="n">
-        <v>28.07712706366136</v>
+        <v>28.4831413333281</v>
       </c>
       <c r="F35" t="n">
-        <v>36.93853447503202</v>
+        <v>37.02591552286049</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14.2303782291258</v>
+        <v>14.25631359342803</v>
       </c>
       <c r="B36" t="n">
-        <v>11.61932689183805</v>
+        <v>11.56818028562744</v>
       </c>
       <c r="C36" t="n">
-        <v>16.98019151401942</v>
+        <v>16.93806821974593</v>
       </c>
       <c r="D36" t="n">
-        <v>24.45006931898661</v>
+        <v>24.48897876815126</v>
       </c>
       <c r="E36" t="n">
-        <v>21.92909236836055</v>
+        <v>21.67230088934244</v>
       </c>
       <c r="F36" t="n">
-        <v>27.2278547375339</v>
+        <v>27.35353924303062</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>26.10468603894254</v>
+        <v>26.38398461422136</v>
       </c>
       <c r="B37" t="n">
-        <v>21.97457887686415</v>
+        <v>22.40146085915187</v>
       </c>
       <c r="C37" t="n">
-        <v>29.63827003084221</v>
+        <v>30.31827032604515</v>
       </c>
       <c r="D37" t="n">
-        <v>34.91749738166855</v>
+        <v>35.68539361603341</v>
       </c>
       <c r="E37" t="n">
-        <v>29.75086921314839</v>
+        <v>29.78814160842834</v>
       </c>
       <c r="F37" t="n">
-        <v>40.8437049673357</v>
+        <v>41.54903061742144</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.698418845812526</v>
+        <v>9.678159568244324</v>
       </c>
       <c r="B38" t="n">
-        <v>6.318399034357965</v>
+        <v>6.166385211786853</v>
       </c>
       <c r="C38" t="n">
-        <v>13.78629988766907</v>
+        <v>13.77403294070479</v>
       </c>
       <c r="D38" t="n">
-        <v>28.82150889810028</v>
+        <v>28.83486971297809</v>
       </c>
       <c r="E38" t="n">
-        <v>25.61129568264082</v>
+        <v>25.65095855652698</v>
       </c>
       <c r="F38" t="n">
-        <v>32.39170074752566</v>
+        <v>32.36596844843282</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21.88441090484459</v>
+        <v>21.97744531900416</v>
       </c>
       <c r="B39" t="n">
-        <v>17.84117300089824</v>
+        <v>18.0970414825759</v>
       </c>
       <c r="C39" t="n">
-        <v>26.11011240858237</v>
+        <v>26.2770475485077</v>
       </c>
       <c r="D39" t="n">
-        <v>35.80996762198423</v>
+        <v>35.65575037603887</v>
       </c>
       <c r="E39" t="n">
-        <v>31.91382980427912</v>
+        <v>31.69922250130552</v>
       </c>
       <c r="F39" t="n">
-        <v>39.62471056529687</v>
+        <v>39.43166461011405</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20.79970769539776</v>
+        <v>20.85067081550672</v>
       </c>
       <c r="B40" t="n">
-        <v>17.60461118221404</v>
+        <v>17.76766389360753</v>
       </c>
       <c r="C40" t="n">
-        <v>24.08052575761386</v>
+        <v>24.11527067486549</v>
       </c>
       <c r="D40" t="n">
-        <v>28.03327869242543</v>
+        <v>27.99449149534359</v>
       </c>
       <c r="E40" t="n">
-        <v>23.24822778158333</v>
+        <v>23.14233708724742</v>
       </c>
       <c r="F40" t="n">
-        <v>33.29125260357609</v>
+        <v>32.81252370608119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13.34536585081394</v>
+        <v>13.43446167273987</v>
       </c>
       <c r="B41" t="n">
-        <v>11.13969341294178</v>
+        <v>11.24668179526856</v>
       </c>
       <c r="C41" t="n">
-        <v>15.47232155367387</v>
+        <v>15.56855117052657</v>
       </c>
       <c r="D41" t="n">
-        <v>22.35547385565903</v>
+        <v>22.49594226980519</v>
       </c>
       <c r="E41" t="n">
-        <v>19.73570375781349</v>
+        <v>19.97854217250139</v>
       </c>
       <c r="F41" t="n">
-        <v>25.20617862145078</v>
+        <v>25.2739302123714</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13.09275613050154</v>
+        <v>13.07658122610876</v>
       </c>
       <c r="B42" t="n">
-        <v>9.241402712629963</v>
+        <v>9.323190531457442</v>
       </c>
       <c r="C42" t="n">
-        <v>17.63308685433253</v>
+        <v>17.60684779723813</v>
       </c>
       <c r="D42" t="n">
-        <v>28.85503533068846</v>
+        <v>28.96905018278335</v>
       </c>
       <c r="E42" t="n">
-        <v>25.64944496314094</v>
+        <v>25.72854611622679</v>
       </c>
       <c r="F42" t="n">
-        <v>32.184606638977</v>
+        <v>32.28946144818467</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20.09544527867143</v>
+        <v>20.08531500231635</v>
       </c>
       <c r="B43" t="n">
-        <v>17.11968814683386</v>
+        <v>17.12912171939207</v>
       </c>
       <c r="C43" t="n">
-        <v>22.9800767562441</v>
+        <v>23.02739168025591</v>
       </c>
       <c r="D43" t="n">
-        <v>31.96827387052856</v>
+        <v>31.89639437079196</v>
       </c>
       <c r="E43" t="n">
-        <v>28.02613073582937</v>
+        <v>28.43721515710969</v>
       </c>
       <c r="F43" t="n">
-        <v>35.24180456999604</v>
+        <v>35.19356152894093</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11.03230097832325</v>
+        <v>11.03317380427163</v>
       </c>
       <c r="B44" t="n">
-        <v>8.523515138746102</v>
+        <v>8.404130553039879</v>
       </c>
       <c r="C44" t="n">
-        <v>13.89419883284163</v>
+        <v>13.84664959395313</v>
       </c>
       <c r="D44" t="n">
-        <v>21.36648456485273</v>
+        <v>21.42817209785918</v>
       </c>
       <c r="E44" t="n">
-        <v>18.77650579745591</v>
+        <v>18.71115571090729</v>
       </c>
       <c r="F44" t="n">
-        <v>24.12421878208337</v>
+        <v>24.23799554430578</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13.40371687788557</v>
+        <v>13.49448196720071</v>
       </c>
       <c r="B45" t="n">
-        <v>9.169436850402899</v>
+        <v>9.108749871153755</v>
       </c>
       <c r="C45" t="n">
-        <v>17.58443901826415</v>
+        <v>17.9017581020484</v>
       </c>
       <c r="D45" t="n">
-        <v>32.00036347571056</v>
+        <v>31.97324810083626</v>
       </c>
       <c r="E45" t="n">
-        <v>28.26000884502842</v>
+        <v>28.04195258104541</v>
       </c>
       <c r="F45" t="n">
-        <v>35.88993661279785</v>
+        <v>35.79020435327094</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.913987436333723</v>
+        <v>8.911067873038535</v>
       </c>
       <c r="B46" t="n">
-        <v>6.055455037058326</v>
+        <v>5.957795807727397</v>
       </c>
       <c r="C46" t="n">
-        <v>12.18889384720769</v>
+        <v>12.20719539999719</v>
       </c>
       <c r="D46" t="n">
-        <v>21.95738539748617</v>
+        <v>21.94147938444198</v>
       </c>
       <c r="E46" t="n">
-        <v>19.54639395981069</v>
+        <v>19.56772660714277</v>
       </c>
       <c r="F46" t="n">
-        <v>24.55143315780349</v>
+        <v>24.5774976395417</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.031038475150228</v>
+        <v>5.021063137882836</v>
       </c>
       <c r="B47" t="n">
-        <v>3.230465908026961</v>
+        <v>3.207889621757298</v>
       </c>
       <c r="C47" t="n">
-        <v>7.676249287187784</v>
+        <v>7.718983462619092</v>
       </c>
       <c r="D47" t="n">
-        <v>23.42357188723141</v>
+        <v>23.4588605815829</v>
       </c>
       <c r="E47" t="n">
-        <v>20.72897243074411</v>
+        <v>20.75411073578729</v>
       </c>
       <c r="F47" t="n">
-        <v>26.51232155668824</v>
+        <v>26.56041332889741</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21.37548048739949</v>
+        <v>21.29459578984924</v>
       </c>
       <c r="B48" t="n">
-        <v>17.52882331185105</v>
+        <v>17.51607429546102</v>
       </c>
       <c r="C48" t="n">
-        <v>24.9442309908284</v>
+        <v>24.99957796877928</v>
       </c>
       <c r="D48" t="n">
-        <v>34.09830991271983</v>
+        <v>34.24008153819812</v>
       </c>
       <c r="E48" t="n">
-        <v>30.26895207378476</v>
+        <v>30.38877982624628</v>
       </c>
       <c r="F48" t="n">
-        <v>37.52766418175917</v>
+        <v>37.86390265206227</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>18.94836361102232</v>
+        <v>18.98535193756381</v>
       </c>
       <c r="B49" t="n">
-        <v>15.92603675170771</v>
+        <v>16.10348982435031</v>
       </c>
       <c r="C49" t="n">
-        <v>21.88190918844215</v>
+        <v>21.85899280212146</v>
       </c>
       <c r="D49" t="n">
-        <v>25.43585640711119</v>
+        <v>25.75760195742794</v>
       </c>
       <c r="E49" t="n">
-        <v>20.71010940489582</v>
+        <v>21.08786123303547</v>
       </c>
       <c r="F49" t="n">
-        <v>30.59304163850894</v>
+        <v>30.86753805788982</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26.04587187382295</v>
+        <v>26.31181194226956</v>
       </c>
       <c r="B50" t="n">
-        <v>22.02965347814918</v>
+        <v>22.40235334395692</v>
       </c>
       <c r="C50" t="n">
-        <v>29.7349853846355</v>
+        <v>30.23524070720945</v>
       </c>
       <c r="D50" t="n">
-        <v>34.91096416524262</v>
+        <v>35.72321602070473</v>
       </c>
       <c r="E50" t="n">
-        <v>29.89420359180756</v>
+        <v>29.88576076935901</v>
       </c>
       <c r="F50" t="n">
-        <v>40.63958683280541</v>
+        <v>41.45747115447536</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17.64268048450567</v>
+        <v>17.69731101842299</v>
       </c>
       <c r="B51" t="n">
-        <v>13.63097985874131</v>
+        <v>13.62194094007191</v>
       </c>
       <c r="C51" t="n">
-        <v>21.5802723439963</v>
+        <v>21.46480360949402</v>
       </c>
       <c r="D51" t="n">
-        <v>22.2369710242784</v>
+        <v>22.25107518224939</v>
       </c>
       <c r="E51" t="n">
-        <v>15.91106409119677</v>
+        <v>15.93706476509253</v>
       </c>
       <c r="F51" t="n">
-        <v>28.61746611227667</v>
+        <v>28.66486930761636</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.758724701828481</v>
+        <v>8.71397341909576</v>
       </c>
       <c r="B52" t="n">
-        <v>6.201741877917568</v>
+        <v>6.233594364275374</v>
       </c>
       <c r="C52" t="n">
-        <v>11.81187022930352</v>
+        <v>11.80078194058102</v>
       </c>
       <c r="D52" t="n">
-        <v>20.39240695763128</v>
+        <v>20.42340036990108</v>
       </c>
       <c r="E52" t="n">
-        <v>17.92995124381961</v>
+        <v>17.88354691345254</v>
       </c>
       <c r="F52" t="n">
-        <v>23.29075065711368</v>
+        <v>23.38665956206283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>21.85629787035233</v>
+        <v>21.95507011929543</v>
       </c>
       <c r="B53" t="n">
-        <v>17.85217802528852</v>
+        <v>17.93979383150759</v>
       </c>
       <c r="C53" t="n">
-        <v>25.87723475095785</v>
+        <v>26.03699977278898</v>
       </c>
       <c r="D53" t="n">
-        <v>35.89924807063311</v>
+        <v>35.64757514470208</v>
       </c>
       <c r="E53" t="n">
-        <v>32.43339927270841</v>
+        <v>31.81870463055863</v>
       </c>
       <c r="F53" t="n">
-        <v>39.54039326700765</v>
+        <v>39.30259959492064</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>25.25601717609205</v>
+        <v>25.32375053380715</v>
       </c>
       <c r="B54" t="n">
-        <v>20.38018127949137</v>
+        <v>19.97020359922036</v>
       </c>
       <c r="C54" t="n">
-        <v>31.1597958637074</v>
+        <v>31.26865092658143</v>
       </c>
       <c r="D54" t="n">
-        <v>32.12847081883123</v>
+        <v>31.84093893239505</v>
       </c>
       <c r="E54" t="n">
-        <v>23.69951447519993</v>
+        <v>23.44228959698361</v>
       </c>
       <c r="F54" t="n">
-        <v>39.7853883946301</v>
+        <v>39.76679569213507</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>24.28133725990013</v>
+        <v>24.15938887355008</v>
       </c>
       <c r="B55" t="n">
-        <v>20.69492237413221</v>
+        <v>21.07943719287941</v>
       </c>
       <c r="C55" t="n">
-        <v>27.88345058497458</v>
+        <v>27.86193420075667</v>
       </c>
       <c r="D55" t="n">
-        <v>32.6193318276595</v>
+        <v>32.82993166362392</v>
       </c>
       <c r="E55" t="n">
-        <v>27.50262587489706</v>
+        <v>27.69868877431457</v>
       </c>
       <c r="F55" t="n">
-        <v>37.96222750433395</v>
+        <v>38.06233460339375</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.17461906045946</v>
+        <v>9.163632610013202</v>
       </c>
       <c r="B56" t="n">
-        <v>6.415326378841334</v>
+        <v>6.495978792133225</v>
       </c>
       <c r="C56" t="n">
-        <v>12.5212544686186</v>
+        <v>12.3490027757876</v>
       </c>
       <c r="D56" t="n">
-        <v>23.94184438007331</v>
+        <v>23.9439608955713</v>
       </c>
       <c r="E56" t="n">
-        <v>21.25479537606201</v>
+        <v>21.31372376851823</v>
       </c>
       <c r="F56" t="n">
-        <v>26.70891444151745</v>
+        <v>26.67906419719397</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.687281553577297</v>
+        <v>6.697583502319286</v>
       </c>
       <c r="B57" t="n">
-        <v>4.426319553868179</v>
+        <v>4.426758654717602</v>
       </c>
       <c r="C57" t="n">
-        <v>9.864731432881294</v>
+        <v>9.808722496293417</v>
       </c>
       <c r="D57" t="n">
-        <v>21.06482101275871</v>
+        <v>21.0072997543142</v>
       </c>
       <c r="E57" t="n">
-        <v>18.73820157847155</v>
+        <v>18.59700602978728</v>
       </c>
       <c r="F57" t="n">
-        <v>23.69059306046524</v>
+        <v>23.58047428912761</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>26.09539144716507</v>
+        <v>26.33503172344272</v>
       </c>
       <c r="B58" t="n">
-        <v>21.97449043402957</v>
+        <v>22.38896146491475</v>
       </c>
       <c r="C58" t="n">
-        <v>29.59710765731646</v>
+        <v>30.17368034269897</v>
       </c>
       <c r="D58" t="n">
-        <v>34.94767818630431</v>
+        <v>35.72341152661004</v>
       </c>
       <c r="E58" t="n">
-        <v>29.82235019667133</v>
+        <v>29.82643764215907</v>
       </c>
       <c r="F58" t="n">
-        <v>40.80531744931645</v>
+        <v>41.42238908824211</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12.09560256568235</v>
+        <v>12.08724277361802</v>
       </c>
       <c r="B59" t="n">
-        <v>8.902603715098884</v>
+        <v>8.751401359558903</v>
       </c>
       <c r="C59" t="n">
-        <v>15.54298352498439</v>
+        <v>15.58550674168975</v>
       </c>
       <c r="D59" t="n">
-        <v>25.11640426330012</v>
+        <v>25.11558039467248</v>
       </c>
       <c r="E59" t="n">
-        <v>22.19954575555242</v>
+        <v>22.17321500147788</v>
       </c>
       <c r="F59" t="n">
-        <v>28.38835529492298</v>
+        <v>28.44651881624265</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>26.97868617741424</v>
+        <v>27.36616014591063</v>
       </c>
       <c r="B60" t="n">
-        <v>21.97750056006872</v>
+        <v>22.14059692101064</v>
       </c>
       <c r="C60" t="n">
-        <v>32.69736457749448</v>
+        <v>32.83611100822818</v>
       </c>
       <c r="D60" t="n">
-        <v>34.79276615548181</v>
+        <v>35.00606920224113</v>
       </c>
       <c r="E60" t="n">
-        <v>27.72130537448066</v>
+        <v>27.67226411684061</v>
       </c>
       <c r="F60" t="n">
-        <v>41.91328682068384</v>
+        <v>42.64202492670989</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.654548978555681</v>
+        <v>9.638230182058049</v>
       </c>
       <c r="B61" t="n">
-        <v>6.421412549078493</v>
+        <v>6.406639020655216</v>
       </c>
       <c r="C61" t="n">
-        <v>14.18168572961694</v>
+        <v>14.00501660558549</v>
       </c>
       <c r="D61" t="n">
-        <v>27.20845568335492</v>
+        <v>27.22241482174559</v>
       </c>
       <c r="E61" t="n">
-        <v>24.03119542820417</v>
+        <v>24.0918031196409</v>
       </c>
       <c r="F61" t="n">
-        <v>30.3133889135088</v>
+        <v>30.20130775131776</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12.64400085893513</v>
+        <v>12.60152483697648</v>
       </c>
       <c r="B62" t="n">
-        <v>9.109704067203118</v>
+        <v>9.06210018354161</v>
       </c>
       <c r="C62" t="n">
-        <v>17.21319090177191</v>
+        <v>16.61228057275787</v>
       </c>
       <c r="D62" t="n">
-        <v>27.09264957511605</v>
+        <v>27.17141734244063</v>
       </c>
       <c r="E62" t="n">
-        <v>24.37438198726068</v>
+        <v>24.28892462166423</v>
       </c>
       <c r="F62" t="n">
-        <v>30.4363904017348</v>
+        <v>30.44089550084005</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.786791280144795</v>
+        <v>9.791421702021132</v>
       </c>
       <c r="B63" t="n">
-        <v>6.003489451393147</v>
+        <v>6.376244919062151</v>
       </c>
       <c r="C63" t="n">
-        <v>14.58643680165581</v>
+        <v>14.26087177731616</v>
       </c>
       <c r="D63" t="n">
-        <v>30.22418036887687</v>
+        <v>30.18017120139845</v>
       </c>
       <c r="E63" t="n">
-        <v>26.57653512156544</v>
+        <v>26.49984519339437</v>
       </c>
       <c r="F63" t="n">
-        <v>34.02491398082323</v>
+        <v>33.89413210216824</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>26.99356217150497</v>
+        <v>27.37093716936551</v>
       </c>
       <c r="B64" t="n">
-        <v>21.98145478604168</v>
+        <v>22.16432227684842</v>
       </c>
       <c r="C64" t="n">
-        <v>32.63233755853712</v>
+        <v>32.83035657790118</v>
       </c>
       <c r="D64" t="n">
-        <v>34.80744581940904</v>
+        <v>35.02044989515417</v>
       </c>
       <c r="E64" t="n">
-        <v>27.66890416770954</v>
+        <v>27.66694136560704</v>
       </c>
       <c r="F64" t="n">
-        <v>41.93790118049407</v>
+        <v>42.53834533158198</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.594408031665243</v>
+        <v>6.56998203610183</v>
       </c>
       <c r="B65" t="n">
-        <v>4.34783720210371</v>
+        <v>4.301925033091852</v>
       </c>
       <c r="C65" t="n">
-        <v>9.43481049545932</v>
+        <v>9.382574140583767</v>
       </c>
       <c r="D65" t="n">
-        <v>19.2764645969356</v>
+        <v>19.32342187479811</v>
       </c>
       <c r="E65" t="n">
-        <v>16.92618305776211</v>
+        <v>16.95566023080034</v>
       </c>
       <c r="F65" t="n">
-        <v>21.76376745401856</v>
+        <v>21.78841428575728</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>17.41039073201097</v>
+        <v>17.40605386265805</v>
       </c>
       <c r="B66" t="n">
-        <v>13.26727562659688</v>
+        <v>13.38781530679534</v>
       </c>
       <c r="C66" t="n">
-        <v>21.74582243615196</v>
+        <v>21.78711418428803</v>
       </c>
       <c r="D66" t="n">
-        <v>32.45587826912816</v>
+        <v>32.38153258787664</v>
       </c>
       <c r="E66" t="n">
-        <v>28.98082298435463</v>
+        <v>28.50475145825224</v>
       </c>
       <c r="F66" t="n">
-        <v>36.2946863358039</v>
+        <v>36.23468481880326</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>16.77298197054611</v>
+        <v>16.79684954812645</v>
       </c>
       <c r="B67" t="n">
-        <v>13.00381940071522</v>
+        <v>13.15418506113846</v>
       </c>
       <c r="C67" t="n">
-        <v>20.35984781234038</v>
+        <v>20.33964346433775</v>
       </c>
       <c r="D67" t="n">
-        <v>30.49926181368427</v>
+        <v>30.62045382749919</v>
       </c>
       <c r="E67" t="n">
-        <v>27.3459521092926</v>
+        <v>27.24647073569407</v>
       </c>
       <c r="F67" t="n">
-        <v>33.77030475888303</v>
+        <v>33.81743287637004</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>22.65840963727159</v>
+        <v>22.55883964528653</v>
       </c>
       <c r="B68" t="n">
-        <v>19.23594391563238</v>
+        <v>19.28720540522432</v>
       </c>
       <c r="C68" t="n">
-        <v>26.27117366064385</v>
+        <v>25.92509460783238</v>
       </c>
       <c r="D68" t="n">
-        <v>30.36346978804993</v>
+        <v>30.43464825122145</v>
       </c>
       <c r="E68" t="n">
-        <v>25.71826816436614</v>
+        <v>25.4493593734573</v>
       </c>
       <c r="F68" t="n">
-        <v>35.91330731630686</v>
+        <v>35.63301779991281</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.985344340529998</v>
+        <v>4.970416280884821</v>
       </c>
       <c r="B69" t="n">
-        <v>3.247836181625388</v>
+        <v>3.258252483675609</v>
       </c>
       <c r="C69" t="n">
-        <v>7.751263976515663</v>
+        <v>7.564843958141837</v>
       </c>
       <c r="D69" t="n">
-        <v>23.31607927519165</v>
+        <v>23.36902502715233</v>
       </c>
       <c r="E69" t="n">
-        <v>20.4852857293871</v>
+        <v>20.49270134744297</v>
       </c>
       <c r="F69" t="n">
-        <v>26.25662520979806</v>
+        <v>26.29136888249939</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20.77115891833664</v>
+        <v>20.68694535918629</v>
       </c>
       <c r="B70" t="n">
-        <v>17.70975286953062</v>
+        <v>17.87300845267964</v>
       </c>
       <c r="C70" t="n">
-        <v>23.98777851096881</v>
+        <v>23.97151305682454</v>
       </c>
       <c r="D70" t="n">
-        <v>28.09808958770845</v>
+        <v>28.21883911987641</v>
       </c>
       <c r="E70" t="n">
-        <v>23.15490345318701</v>
+        <v>22.76795952178582</v>
       </c>
       <c r="F70" t="n">
-        <v>33.48828999414355</v>
+        <v>33.89992655252474</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>15.07277459872104</v>
+        <v>14.97746271998389</v>
       </c>
       <c r="B71" t="n">
-        <v>13.00203433222459</v>
+        <v>12.92675406191704</v>
       </c>
       <c r="C71" t="n">
-        <v>17.13878214974686</v>
+        <v>17.04566419354114</v>
       </c>
       <c r="D71" t="n">
-        <v>22.99170292024902</v>
+        <v>22.86536942709949</v>
       </c>
       <c r="E71" t="n">
-        <v>19.75040948726871</v>
+        <v>19.89847351491565</v>
       </c>
       <c r="F71" t="n">
-        <v>26.10732734563838</v>
+        <v>26.07334625502334</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>17.64419996504369</v>
+        <v>17.5726001922812</v>
       </c>
       <c r="B72" t="n">
-        <v>15.13973983022697</v>
+        <v>15.04376265631575</v>
       </c>
       <c r="C72" t="n">
-        <v>20.33399887307112</v>
+        <v>20.26980252460659</v>
       </c>
       <c r="D72" t="n">
-        <v>27.57076883724452</v>
+        <v>27.43868285690773</v>
       </c>
       <c r="E72" t="n">
-        <v>23.98103598829726</v>
+        <v>24.26828964895979</v>
       </c>
       <c r="F72" t="n">
-        <v>30.98659211939766</v>
+        <v>30.79899701160332</v>
       </c>
     </row>
   </sheetData>
